--- a/c1-descritiva/ed-medidas-amostrais.xlsx
+++ b/c1-descritiva/ed-medidas-amostrais.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedrocruz\Documents\GitHub\bioestatistica-ua\c1-descritiva\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE28463-EE27-475B-AEB7-B182DBBA891B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D22A8F-78E6-4698-8840-807D6FAA6A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{CF6AB4D5-CD1B-4CE6-9534-40011C785846}"/>
   </bookViews>
@@ -18,9 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'variável numérica discreta'!$C$4:$C$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'variável numérica discreta'!$C$4:$C$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'variável numérica contínua'!$C$6:$C$36</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'variável numérica contínua'!$C$6:$C$36</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'variável numérica contínua'!$C$6:$C$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>média</t>
   </si>
@@ -140,9 +139,6 @@
     <t>célula C6</t>
   </si>
   <si>
-    <t>célula C31</t>
-  </si>
-  <si>
     <t>=MÉDIA(C4:C36)</t>
   </si>
   <si>
@@ -219,13 +215,22 @@
   </si>
   <si>
     <t>2. menu: inserir =&gt; procurar "gráfico de coluna"</t>
+  </si>
+  <si>
+    <t>2º Decil</t>
+  </si>
+  <si>
+    <t>=PERCENTIL.INC(c6:c36;0,2)</t>
+  </si>
+  <si>
+    <t>célula C36</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +247,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -288,13 +302,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,7 +661,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -680,7 +695,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3079,7 +3094,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6729412" y="1747837"/>
+              <a:off x="6986587" y="1747837"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3503,29 +3518,29 @@
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="C3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="9"/>
       <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
@@ -3599,7 +3614,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2">
         <v>1</v>
@@ -3627,7 +3642,7 @@
         <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O8" s="2">
         <v>2</v>
@@ -3722,14 +3737,14 @@
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12">
         <f>_xlfn.QUARTILE.INC(C4:C16,1)</f>
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -3737,17 +3752,17 @@
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13">
         <f>_xlfn.QUARTILE.INC(C4:C16,3)</f>
         <v>3</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
@@ -3755,7 +3770,7 @@
         <v>4</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
@@ -3772,13 +3787,13 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="9"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -3828,12 +3843,12 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
@@ -3934,38 +3949,39 @@
   <dimension ref="B1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>56</v>
+      <c r="B1" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="7"/>
       <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="9"/>
       <c r="J5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="7"/>
+      <c r="M5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -3985,7 +4001,7 @@
         <v>17.077419354838714</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -4003,10 +4019,10 @@
         <v>16.8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -4024,10 +4040,10 @@
         <v>16.8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -4045,7 +4061,7 @@
         <v>2.0246332470218347</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -4063,7 +4079,7 @@
         <v>1.7148147331886898</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -4081,7 +4097,7 @@
         <v>4.0991397849461766</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -4099,7 +4115,7 @@
         <v>3.9669094693027613</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -4117,7 +4133,7 @@
         <v>0.28154472087345495</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
@@ -4128,14 +4144,14 @@
         <v>15.7</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H14">
         <f>_xlfn.QUARTILE.INC(C6:C36,1)</f>
         <v>15.649999999999999</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
@@ -4146,14 +4162,14 @@
         <v>15.7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15">
         <f>_xlfn.QUARTILE.INC(C6:C36,3)</f>
         <v>18.5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -4163,6 +4179,16 @@
       <c r="E16">
         <v>15.9</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16">
+        <f>_xlfn.PERCENTILE.INC(C6:C36,0.2)</f>
+        <v>15.6</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17">
@@ -4319,8 +4345,8 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>32</v>
+      <c r="B36" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="C36">
         <v>13.1</v>
@@ -4331,7 +4357,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
